--- a/2018/ks.xlsx
+++ b/2018/ks.xlsx
@@ -8,19 +8,25 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ESB13240/Dropbox/Social/VoteSimulator/2018/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D3E07AB-3181-6546-972A-50D5F7AD3B9A}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5924FEA8-B449-A34E-A93A-ED6BAB6D89C4}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlchart.v1.0" hidden="1">Sheet1!$U$15:$W$15</definedName>
+    <definedName name="_xlchart.v1.1" hidden="1">Sheet1!$U$1:$W$1</definedName>
+    <definedName name="_xlchart.v1.2" hidden="1">Sheet1!$U$15:$W$15</definedName>
+    <definedName name="_xlchart.v1.3" hidden="1">Sheet1!$U$1:$W$1</definedName>
+  </definedNames>
   <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="15">
   <si>
     <t>age</t>
   </si>
@@ -43,21 +49,39 @@
     <t>vote_woman</t>
   </si>
   <si>
-    <t>vote</t>
-  </si>
-  <si>
-    <t>people</t>
-  </si>
-  <si>
-    <t>陳其邁</t>
+    <t>其他</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>韓國瑜</t>
+    <t>預估投票數</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>其他</t>
+    <t>總可投票數</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>陳其邁
+9/11</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>韓國瑜
+9/11</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>陳其邁
+7/4</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>韓國瑜
+7/4</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>韓國瑜9/11</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -142,7 +166,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -153,6 +177,9 @@
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="1" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="176" fontId="0" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="一般" xfId="0" builtinId="0"/>
@@ -169,6 +196,902 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="zh-TW"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:pieChart>
+        <c:varyColors val="1"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:dPt>
+            <c:idx val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3">
+                  <a:lumMod val="40000"/>
+                  <a:lumOff val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000002-67A0-E640-BB29-56854688AB42}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="1"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="tx2">
+                  <a:lumMod val="40000"/>
+                  <a:lumOff val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000001-67A0-E640-BB29-56854688AB42}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="2"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="bg1">
+                  <a:lumMod val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000003-67A0-E640-BB29-56854688AB42}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dLbls>
+            <c:dLbl>
+              <c:idx val="0"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="1"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="1"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000002-67A0-E640-BB29-56854688AB42}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="1"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="1"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="1"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000001-67A0-E640-BB29-56854688AB42}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="2"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="1"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="1"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000003-67A0-E640-BB29-56854688AB42}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="zh-TW"/>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="1"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="1"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="1"/>
+            <c:leaderLines>
+              <c:spPr>
+                <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="35000"/>
+                      <a:lumOff val="65000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:round/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+            </c:leaderLines>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$P$1:$R$1</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>陳其邁
+7/4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>韓國瑜
+7/4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>其他</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$P$15:$R$15</c:f>
+              <c:numCache>
+                <c:formatCode>0</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>936021.25</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>721999.95</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>630181.80000000005</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-67A0-E640-BB29-56854688AB42}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="1"/>
+          <c:showBubbleSize val="0"/>
+          <c:showLeaderLines val="1"/>
+        </c:dLbls>
+        <c:firstSliceAng val="0"/>
+      </c:pieChart>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="zh-TW"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="251">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050">
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="25400">
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>723900</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>25400</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="圖表 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7316F1BB-7652-B441-A6C8-FF7C8E3D89A0}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -456,28 +1379,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:R16"/>
+  <dimension ref="A1:W16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P1" sqref="P1:Q14"/>
+      <selection activeCell="W38" sqref="W38"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.19921875" defaultRowHeight="14"/>
   <cols>
-    <col min="1" max="1" width="4.3984375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="5.3984375" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="9.3984375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.19921875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.59765625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.3984375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="13" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="13.3984375" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="9.3984375" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="10" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="9.19921875" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="13.3984375" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="9.3984375" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="10" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18">
+    <row r="1" spans="1:23" ht="30">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -500,28 +1415,43 @@
         <v>6</v>
       </c>
       <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="N1" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="O1" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="P1" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q1" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="R1" t="s">
         <v>7</v>
       </c>
-      <c r="J1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="N1" t="s">
-        <v>9</v>
-      </c>
-      <c r="O1" t="s">
+      <c r="S1" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="P1" t="s">
-        <v>9</v>
-      </c>
-      <c r="Q1" t="s">
+      <c r="T1" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="U1" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="R1" t="s">
+      <c r="V1" s="8" t="s">
         <v>11</v>
       </c>
+      <c r="W1" s="8" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="2" spans="1:18">
+    <row r="2" spans="1:23">
       <c r="A2" s="1">
         <v>27</v>
       </c>
@@ -541,24 +1471,28 @@
         <v>60.2</v>
       </c>
       <c r="G2" s="5">
+        <f>E2*C2/100</f>
         <v>49658.817000000003</v>
       </c>
       <c r="H2" s="5">
-        <v>52604.566000000013</v>
+        <f>F2*D2/100</f>
+        <v>52604.566000000006</v>
       </c>
       <c r="I2" s="5">
+        <f>SUM(G2:H2)</f>
         <v>102263.383</v>
       </c>
       <c r="J2">
+        <f>SUM(C2:D2)</f>
         <v>181256</v>
       </c>
       <c r="K2" s="7">
         <f t="shared" ref="K2:L14" si="0">I2/I$15</f>
-        <v>6.414166697644029E-2</v>
+        <v>6.5705527685372703E-2</v>
       </c>
       <c r="L2" s="7">
         <f t="shared" si="0"/>
-        <v>7.6567878715425725E-2</v>
+        <v>7.9213251621468903E-2</v>
       </c>
       <c r="N2">
         <v>0.51</v>
@@ -574,8 +1508,26 @@
         <f>O2*J2</f>
         <v>39876.32</v>
       </c>
+      <c r="S2">
+        <v>0.39</v>
+      </c>
+      <c r="T2">
+        <v>0.39</v>
+      </c>
+      <c r="U2" s="5">
+        <f>S2*$J2</f>
+        <v>70689.84</v>
+      </c>
+      <c r="V2" s="5">
+        <f>T2*$J2</f>
+        <v>70689.84</v>
+      </c>
+      <c r="W2" s="5">
+        <f>$J2-U2-V2</f>
+        <v>39876.320000000007</v>
+      </c>
     </row>
-    <row r="3" spans="1:18">
+    <row r="3" spans="1:23">
       <c r="A3" s="1">
         <v>29</v>
       </c>
@@ -595,24 +1547,28 @@
         <v>55.6</v>
       </c>
       <c r="G3" s="5">
+        <f t="shared" ref="G3:H14" si="1">E3*C3/100</f>
         <v>53742.144999999997</v>
       </c>
       <c r="H3" s="5">
+        <f t="shared" si="1"/>
         <v>49625.78</v>
       </c>
       <c r="I3" s="5">
-        <v>103367.925</v>
+        <f t="shared" ref="I3:I15" si="2">SUM(G3:H3)</f>
+        <v>103367.92499999999</v>
       </c>
       <c r="J3">
+        <f t="shared" ref="J3:J15" si="3">SUM(C3:D3)</f>
         <v>185740</v>
       </c>
       <c r="K3" s="7">
         <f t="shared" si="0"/>
-        <v>6.4834458110931623E-2</v>
+        <v>6.6415210005980621E-2</v>
       </c>
       <c r="L3" s="7">
         <f t="shared" si="0"/>
-        <v>7.8462052525727008E-2</v>
+        <v>8.117286796669701E-2</v>
       </c>
       <c r="N3">
         <v>0.51</v>
@@ -621,15 +1577,33 @@
         <v>0.22</v>
       </c>
       <c r="P3" s="5">
-        <f t="shared" ref="P3:P14" si="1">N3*J3</f>
+        <f t="shared" ref="P3:P14" si="4">N3*J3</f>
         <v>94727.400000000009</v>
       </c>
       <c r="Q3" s="5">
-        <f t="shared" ref="Q3:Q14" si="2">O3*J3</f>
+        <f t="shared" ref="Q3:Q14" si="5">O3*J3</f>
         <v>40862.800000000003</v>
       </c>
+      <c r="S3">
+        <v>0.39</v>
+      </c>
+      <c r="T3">
+        <v>0.39</v>
+      </c>
+      <c r="U3" s="5">
+        <f t="shared" ref="U3:U14" si="6">S3*$J3</f>
+        <v>72438.600000000006</v>
+      </c>
+      <c r="V3" s="5">
+        <f t="shared" ref="V3:V14" si="7">T3*$J3</f>
+        <v>72438.600000000006</v>
+      </c>
+      <c r="W3" s="5">
+        <f t="shared" ref="W3:W16" si="8">$J3-U3-V3</f>
+        <v>40862.799999999988</v>
+      </c>
     </row>
-    <row r="4" spans="1:18">
+    <row r="4" spans="1:23">
       <c r="A4" s="1">
         <v>31</v>
       </c>
@@ -649,24 +1623,28 @@
         <v>61.9</v>
       </c>
       <c r="G4" s="5">
-        <v>58610.117999999988</v>
+        <f t="shared" si="1"/>
+        <v>58610.117999999995</v>
       </c>
       <c r="H4" s="5">
-        <v>58225.615999999987</v>
+        <f t="shared" si="1"/>
+        <v>58225.615999999995</v>
       </c>
       <c r="I4" s="5">
+        <f t="shared" si="2"/>
         <v>116835.734</v>
       </c>
       <c r="J4">
+        <f t="shared" si="3"/>
         <v>191423</v>
       </c>
       <c r="K4" s="7">
         <f t="shared" si="0"/>
-        <v>7.328174094510409E-2</v>
+        <v>7.5068449035935375E-2</v>
       </c>
       <c r="L4" s="7">
         <f t="shared" si="0"/>
-        <v>8.0862719288425977E-2</v>
+        <v>8.3656476282917211E-2</v>
       </c>
       <c r="N4">
         <v>0.47</v>
@@ -675,15 +1653,33 @@
         <v>0.28999999999999998</v>
       </c>
       <c r="P4" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>89968.81</v>
       </c>
       <c r="Q4" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>55512.67</v>
       </c>
+      <c r="S4">
+        <v>0.37</v>
+      </c>
+      <c r="T4">
+        <v>0.32</v>
+      </c>
+      <c r="U4" s="5">
+        <f t="shared" si="6"/>
+        <v>70826.509999999995</v>
+      </c>
+      <c r="V4" s="5">
+        <f t="shared" si="7"/>
+        <v>61255.360000000001</v>
+      </c>
+      <c r="W4" s="5">
+        <f t="shared" si="8"/>
+        <v>59341.130000000005</v>
+      </c>
     </row>
-    <row r="5" spans="1:18">
+    <row r="5" spans="1:23">
       <c r="A5" s="1">
         <v>33</v>
       </c>
@@ -703,24 +1699,28 @@
         <v>60.9</v>
       </c>
       <c r="G5" s="5">
+        <f t="shared" si="1"/>
         <v>70348.853000000003</v>
       </c>
       <c r="H5" s="5">
+        <f t="shared" si="1"/>
         <v>72796.815000000002</v>
       </c>
       <c r="I5" s="5">
+        <f t="shared" si="2"/>
         <v>143145.66800000001</v>
       </c>
       <c r="J5">
+        <f t="shared" si="3"/>
         <v>236588</v>
       </c>
       <c r="K5" s="7">
         <f t="shared" si="0"/>
-        <v>8.9783864924320819E-2</v>
+        <v>9.1972917146845898E-2</v>
       </c>
       <c r="L5" s="7">
         <f t="shared" si="0"/>
-        <v>9.9941746974031992E-2</v>
+        <v>0.10339467258805272</v>
       </c>
       <c r="N5">
         <v>0.47</v>
@@ -729,15 +1729,33 @@
         <v>0.28999999999999998</v>
       </c>
       <c r="P5" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>111196.36</v>
       </c>
       <c r="Q5" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>68610.51999999999</v>
       </c>
+      <c r="S5">
+        <v>0.37</v>
+      </c>
+      <c r="T5">
+        <v>0.32</v>
+      </c>
+      <c r="U5" s="5">
+        <f t="shared" si="6"/>
+        <v>87537.56</v>
+      </c>
+      <c r="V5" s="5">
+        <f t="shared" si="7"/>
+        <v>75708.160000000003</v>
+      </c>
+      <c r="W5" s="5">
+        <f t="shared" si="8"/>
+        <v>73342.28</v>
+      </c>
     </row>
-    <row r="6" spans="1:18">
+    <row r="6" spans="1:23">
       <c r="A6" s="1">
         <v>35</v>
       </c>
@@ -757,24 +1775,28 @@
         <v>67</v>
       </c>
       <c r="G6" s="5">
+        <f t="shared" si="1"/>
         <v>69892.847999999998</v>
       </c>
       <c r="H6" s="5">
+        <f t="shared" si="1"/>
         <v>78893.84</v>
       </c>
       <c r="I6" s="5">
+        <f t="shared" si="2"/>
         <v>148786.68799999999</v>
       </c>
       <c r="J6">
+        <f t="shared" si="3"/>
         <v>231584</v>
       </c>
       <c r="K6" s="7">
         <f t="shared" si="0"/>
-        <v>9.332202702724518E-2</v>
+        <v>9.5597344433626941E-2</v>
       </c>
       <c r="L6" s="7">
         <f t="shared" si="0"/>
-        <v>9.7827909831581586E-2</v>
+        <v>0.10120780367825757</v>
       </c>
       <c r="N6">
         <v>0.39</v>
@@ -783,15 +1805,33 @@
         <v>0.4</v>
       </c>
       <c r="P6" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>90317.760000000009</v>
       </c>
       <c r="Q6" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>92633.600000000006</v>
       </c>
+      <c r="S6">
+        <v>0.35</v>
+      </c>
+      <c r="T6">
+        <v>0.47</v>
+      </c>
+      <c r="U6" s="5">
+        <f t="shared" si="6"/>
+        <v>81054.399999999994</v>
+      </c>
+      <c r="V6" s="5">
+        <f t="shared" si="7"/>
+        <v>108844.48</v>
+      </c>
+      <c r="W6" s="5">
+        <f t="shared" si="8"/>
+        <v>41685.12000000001</v>
+      </c>
     </row>
-    <row r="7" spans="1:18">
+    <row r="7" spans="1:23">
       <c r="A7" s="1">
         <v>37</v>
       </c>
@@ -811,24 +1851,28 @@
         <v>68.7</v>
       </c>
       <c r="G7" s="5">
+        <f t="shared" si="1"/>
         <v>67874.94</v>
       </c>
       <c r="H7" s="5">
+        <f t="shared" si="1"/>
         <v>76571.646000000008</v>
       </c>
       <c r="I7" s="5">
+        <f t="shared" si="2"/>
         <v>144446.58600000001</v>
       </c>
       <c r="J7">
+        <f t="shared" si="3"/>
         <v>219196</v>
       </c>
       <c r="K7" s="7">
         <f t="shared" si="0"/>
-        <v>9.0599827067091493E-2</v>
+        <v>9.2808773551727397E-2</v>
       </c>
       <c r="L7" s="7">
         <f t="shared" si="0"/>
-        <v>9.2594853372613639E-2</v>
+        <v>9.5793948351610411E-2</v>
       </c>
       <c r="N7">
         <v>0.39</v>
@@ -837,15 +1881,33 @@
         <v>0.4</v>
       </c>
       <c r="P7" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>85486.44</v>
       </c>
       <c r="Q7" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>87678.400000000009</v>
       </c>
+      <c r="S7">
+        <v>0.35</v>
+      </c>
+      <c r="T7">
+        <v>0.47</v>
+      </c>
+      <c r="U7" s="5">
+        <f t="shared" si="6"/>
+        <v>76718.599999999991</v>
+      </c>
+      <c r="V7" s="5">
+        <f t="shared" si="7"/>
+        <v>103022.12</v>
+      </c>
+      <c r="W7" s="5">
+        <f t="shared" si="8"/>
+        <v>39455.280000000028</v>
+      </c>
     </row>
-    <row r="8" spans="1:18">
+    <row r="8" spans="1:23">
       <c r="A8" s="1">
         <v>39</v>
       </c>
@@ -865,24 +1927,28 @@
         <v>74.900000000000006</v>
       </c>
       <c r="G8" s="5">
+        <f t="shared" si="1"/>
         <v>80531.828999999998</v>
       </c>
       <c r="H8" s="5">
+        <f t="shared" si="1"/>
         <v>82422.206999999995</v>
       </c>
       <c r="I8" s="5">
+        <f t="shared" si="2"/>
         <v>162954.03599999999</v>
       </c>
       <c r="J8">
+        <f t="shared" si="3"/>
         <v>217850</v>
       </c>
       <c r="K8" s="7">
         <f t="shared" si="0"/>
-        <v>0.102208074903789</v>
+        <v>0.10470004619191231</v>
       </c>
       <c r="L8" s="7">
         <f t="shared" si="0"/>
-        <v>9.2026263285935342E-2</v>
+        <v>9.5205713828711874E-2</v>
       </c>
       <c r="N8">
         <v>0.31</v>
@@ -891,15 +1957,33 @@
         <v>0.44</v>
       </c>
       <c r="P8" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>67533.5</v>
       </c>
       <c r="Q8" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>95854</v>
       </c>
+      <c r="S8">
+        <v>0.38</v>
+      </c>
+      <c r="T8">
+        <v>0.43</v>
+      </c>
+      <c r="U8" s="5">
+        <f t="shared" si="6"/>
+        <v>82783</v>
+      </c>
+      <c r="V8" s="5">
+        <f t="shared" si="7"/>
+        <v>93675.5</v>
+      </c>
+      <c r="W8" s="5">
+        <f t="shared" si="8"/>
+        <v>41391.5</v>
+      </c>
     </row>
-    <row r="9" spans="1:18">
+    <row r="9" spans="1:23">
       <c r="A9" s="1">
         <v>41</v>
       </c>
@@ -919,24 +2003,28 @@
         <v>77.5</v>
       </c>
       <c r="G9" s="5">
+        <f t="shared" si="1"/>
         <v>81211.259999999995</v>
       </c>
       <c r="H9" s="5">
+        <f t="shared" si="1"/>
         <v>86228.05</v>
       </c>
       <c r="I9" s="5">
+        <f t="shared" si="2"/>
         <v>167439.31</v>
       </c>
       <c r="J9">
+        <f t="shared" si="3"/>
         <v>215379</v>
       </c>
       <c r="K9" s="7">
         <f t="shared" si="0"/>
-        <v>0.10502132968537672</v>
+        <v>0.10758189193510939</v>
       </c>
       <c r="L9" s="7">
         <f t="shared" si="0"/>
-        <v>9.0982440028742104E-2</v>
+        <v>9.412582712285579E-2</v>
       </c>
       <c r="N9">
         <v>0.31</v>
@@ -945,15 +2033,33 @@
         <v>0.44</v>
       </c>
       <c r="P9" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>66767.490000000005</v>
       </c>
       <c r="Q9" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>94766.76</v>
       </c>
+      <c r="S9">
+        <v>0.38</v>
+      </c>
+      <c r="T9">
+        <v>0.43</v>
+      </c>
+      <c r="U9" s="5">
+        <f t="shared" si="6"/>
+        <v>81844.02</v>
+      </c>
+      <c r="V9" s="5">
+        <f t="shared" si="7"/>
+        <v>92612.97</v>
+      </c>
+      <c r="W9" s="5">
+        <f t="shared" si="8"/>
+        <v>40922.00999999998</v>
+      </c>
     </row>
-    <row r="10" spans="1:18">
+    <row r="10" spans="1:23">
       <c r="A10" s="1">
         <v>43</v>
       </c>
@@ -973,24 +2079,28 @@
         <v>79.5</v>
       </c>
       <c r="G10" s="5">
+        <f t="shared" si="1"/>
         <v>75982.425999999992</v>
       </c>
       <c r="H10" s="5">
+        <f t="shared" si="1"/>
         <v>83612.535000000003</v>
       </c>
       <c r="I10" s="5">
+        <f t="shared" si="2"/>
         <v>159594.96100000001</v>
       </c>
       <c r="J10">
+        <f t="shared" si="3"/>
         <v>199444</v>
       </c>
       <c r="K10" s="7">
         <f t="shared" si="0"/>
-        <v>0.10010119496613933</v>
+        <v>0.1025417976680028</v>
       </c>
       <c r="L10" s="7">
         <f t="shared" si="0"/>
-        <v>8.42510261868262E-2</v>
+        <v>8.7161847091363834E-2</v>
       </c>
       <c r="N10">
         <v>0.39</v>
@@ -999,15 +2109,33 @@
         <v>0.24</v>
       </c>
       <c r="P10" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>77783.16</v>
       </c>
       <c r="Q10" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>47866.559999999998</v>
       </c>
+      <c r="S10">
+        <v>0.43</v>
+      </c>
+      <c r="T10">
+        <v>0.23</v>
+      </c>
+      <c r="U10" s="5">
+        <f t="shared" si="6"/>
+        <v>85760.92</v>
+      </c>
+      <c r="V10" s="5">
+        <f t="shared" si="7"/>
+        <v>45872.12</v>
+      </c>
+      <c r="W10" s="5">
+        <f t="shared" si="8"/>
+        <v>67810.959999999992</v>
+      </c>
     </row>
-    <row r="11" spans="1:18">
+    <row r="11" spans="1:23">
       <c r="A11" s="1">
         <v>45</v>
       </c>
@@ -1027,24 +2155,28 @@
         <v>83.1</v>
       </c>
       <c r="G11" s="5">
+        <f t="shared" si="1"/>
         <v>64973.838000000011</v>
       </c>
       <c r="H11" s="5">
+        <f t="shared" si="1"/>
         <v>73143.78899999999</v>
       </c>
       <c r="I11" s="5">
+        <f t="shared" si="2"/>
         <v>138117.62700000001</v>
       </c>
       <c r="J11">
+        <f t="shared" si="3"/>
         <v>165461</v>
       </c>
       <c r="K11" s="7">
         <f t="shared" si="0"/>
-        <v>8.6630175676959548E-2</v>
+        <v>8.8742336684544079E-2</v>
       </c>
       <c r="L11" s="7">
         <f t="shared" si="0"/>
-        <v>6.9895605001396133E-2</v>
+        <v>7.2310454972744992E-2</v>
       </c>
       <c r="N11">
         <v>0.39</v>
@@ -1053,15 +2185,33 @@
         <v>0.24</v>
       </c>
       <c r="P11" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>64529.79</v>
       </c>
       <c r="Q11" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>39710.639999999999</v>
       </c>
+      <c r="S11">
+        <v>0.43</v>
+      </c>
+      <c r="T11">
+        <v>0.23</v>
+      </c>
+      <c r="U11" s="5">
+        <f t="shared" si="6"/>
+        <v>71148.23</v>
+      </c>
+      <c r="V11" s="5">
+        <f t="shared" si="7"/>
+        <v>38056.03</v>
+      </c>
+      <c r="W11" s="5">
+        <f t="shared" si="8"/>
+        <v>56256.740000000005</v>
+      </c>
     </row>
-    <row r="12" spans="1:18">
+    <row r="12" spans="1:23">
       <c r="A12" s="1">
         <v>47</v>
       </c>
@@ -1081,24 +2231,28 @@
         <v>77.099999999999994</v>
       </c>
       <c r="G12" s="5">
+        <f t="shared" si="1"/>
         <v>34709.769999999997</v>
       </c>
       <c r="H12" s="5">
-        <v>37318.713000000003</v>
+        <f t="shared" si="1"/>
+        <v>37318.712999999996</v>
       </c>
       <c r="I12" s="5">
+        <f t="shared" si="2"/>
         <v>72028.482999999993</v>
       </c>
       <c r="J12">
+        <f t="shared" si="3"/>
         <v>90222</v>
       </c>
       <c r="K12" s="7">
         <f t="shared" si="0"/>
-        <v>4.5177724752213516E-2</v>
+        <v>4.6279218866560445E-2</v>
       </c>
       <c r="L12" s="7">
         <f t="shared" si="0"/>
-        <v>3.8112432986842588E-2</v>
+        <v>3.9429194000707102E-2</v>
       </c>
       <c r="N12">
         <v>0.39</v>
@@ -1107,15 +2261,33 @@
         <v>0.24</v>
       </c>
       <c r="P12" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>35186.58</v>
       </c>
       <c r="Q12" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>21653.279999999999</v>
       </c>
+      <c r="S12">
+        <v>0.43</v>
+      </c>
+      <c r="T12">
+        <v>0.23</v>
+      </c>
+      <c r="U12" s="5">
+        <f t="shared" si="6"/>
+        <v>38795.46</v>
+      </c>
+      <c r="V12" s="5">
+        <f t="shared" si="7"/>
+        <v>20751.060000000001</v>
+      </c>
+      <c r="W12" s="5">
+        <f t="shared" si="8"/>
+        <v>30675.48</v>
+      </c>
     </row>
-    <row r="13" spans="1:18">
+    <row r="13" spans="1:23">
       <c r="A13" s="1">
         <v>49</v>
       </c>
@@ -1135,24 +2307,28 @@
         <v>68.099999999999994</v>
       </c>
       <c r="G13" s="5">
-        <v>25364.466</v>
+        <f t="shared" si="1"/>
+        <v>25364.465999999997</v>
       </c>
       <c r="H13" s="5">
-        <v>27056.811000000002</v>
+        <f t="shared" si="1"/>
+        <v>27056.810999999998</v>
       </c>
       <c r="I13" s="5">
-        <v>52421.276999999987</v>
+        <f t="shared" si="2"/>
+        <v>52421.276999999995</v>
       </c>
       <c r="J13">
+        <f t="shared" si="3"/>
         <v>71397</v>
       </c>
       <c r="K13" s="7">
         <f t="shared" si="0"/>
-        <v>3.2879687657249988E-2</v>
+        <v>3.3681338971800798E-2</v>
       </c>
       <c r="L13" s="7">
         <f t="shared" si="0"/>
-        <v>3.0160197933559445E-2</v>
+        <v>3.1202214139217543E-2</v>
       </c>
       <c r="N13">
         <v>0.39</v>
@@ -1161,15 +2337,33 @@
         <v>0.24</v>
       </c>
       <c r="P13" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>27844.83</v>
       </c>
       <c r="Q13" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>17135.28</v>
       </c>
+      <c r="S13">
+        <v>0.43</v>
+      </c>
+      <c r="T13">
+        <v>0.23</v>
+      </c>
+      <c r="U13" s="5">
+        <f t="shared" si="6"/>
+        <v>30700.71</v>
+      </c>
+      <c r="V13" s="5">
+        <f t="shared" si="7"/>
+        <v>16421.310000000001</v>
+      </c>
+      <c r="W13" s="5">
+        <f t="shared" si="8"/>
+        <v>24274.98</v>
+      </c>
     </row>
-    <row r="14" spans="1:18">
+    <row r="14" spans="1:23">
       <c r="A14" s="1">
         <v>51</v>
       </c>
@@ -1180,7 +2374,7 @@
         <v>36871</v>
       </c>
       <c r="D14">
-        <v>124848</v>
+        <v>45792</v>
       </c>
       <c r="E14">
         <v>62.4</v>
@@ -1189,24 +2383,28 @@
         <v>48</v>
       </c>
       <c r="G14" s="5">
+        <f t="shared" si="1"/>
         <v>23007.504000000001</v>
       </c>
       <c r="H14" s="5">
-        <v>59927.040000000001</v>
+        <f t="shared" si="1"/>
+        <v>21980.16</v>
       </c>
       <c r="I14" s="5">
-        <v>82934.543999999994</v>
+        <f t="shared" si="2"/>
+        <v>44987.664000000004</v>
       </c>
       <c r="J14">
-        <v>161719</v>
+        <f t="shared" si="3"/>
+        <v>82663</v>
       </c>
       <c r="K14" s="7">
         <f t="shared" si="0"/>
-        <v>5.2018227307138218E-2</v>
+        <v>2.8905147822581276E-2</v>
       </c>
       <c r="L14" s="7">
         <f t="shared" si="0"/>
-        <v>6.8314873868892248E-2</v>
+        <v>3.6125728355395043E-2</v>
       </c>
       <c r="N14">
         <v>0.39</v>
@@ -1215,46 +2413,64 @@
         <v>0.24</v>
       </c>
       <c r="P14" s="5">
-        <f t="shared" si="1"/>
-        <v>63070.41</v>
+        <f t="shared" si="4"/>
+        <v>32238.57</v>
       </c>
       <c r="Q14" s="5">
-        <f t="shared" si="2"/>
-        <v>38812.559999999998</v>
+        <f t="shared" si="5"/>
+        <v>19839.12</v>
+      </c>
+      <c r="S14">
+        <v>0.43</v>
+      </c>
+      <c r="T14">
+        <v>0.23</v>
+      </c>
+      <c r="U14" s="5">
+        <f t="shared" si="6"/>
+        <v>35545.089999999997</v>
+      </c>
+      <c r="V14" s="5">
+        <f t="shared" si="7"/>
+        <v>19012.490000000002</v>
+      </c>
+      <c r="W14" s="5">
+        <f t="shared" si="8"/>
+        <v>28105.420000000002</v>
       </c>
     </row>
-    <row r="15" spans="1:18" s="2" customFormat="1">
+    <row r="15" spans="1:23" s="2" customFormat="1">
       <c r="C15" s="2">
         <f>SUM(C2:C14)</f>
         <v>1120333</v>
       </c>
       <c r="D15" s="2">
-        <f t="shared" ref="D15:J15" si="3">SUM(D2:D14)</f>
-        <v>1246926</v>
+        <f t="shared" ref="D15:F15" si="9">SUM(D2:D14)</f>
+        <v>1167870</v>
       </c>
       <c r="E15" s="2">
+        <f t="shared" si="9"/>
+        <v>896</v>
+      </c>
+      <c r="F15" s="2">
+        <f t="shared" si="9"/>
+        <v>882.50000000000011</v>
+      </c>
+      <c r="G15" s="6">
+        <f>SUM(G2:G14)</f>
+        <v>755908.8139999999</v>
+      </c>
+      <c r="H15" s="6">
+        <f>SUM(H2:H14)</f>
+        <v>800480.52800000005</v>
+      </c>
+      <c r="I15" s="5">
+        <f t="shared" si="2"/>
+        <v>1556389.3419999999</v>
+      </c>
+      <c r="J15">
         <f t="shared" si="3"/>
-        <v>896</v>
-      </c>
-      <c r="F15" s="2">
-        <f t="shared" si="3"/>
-        <v>882.50000000000011</v>
-      </c>
-      <c r="G15" s="6">
-        <f t="shared" si="3"/>
-        <v>755908.8139999999</v>
-      </c>
-      <c r="H15" s="6">
-        <f t="shared" si="3"/>
-        <v>838427.40800000005</v>
-      </c>
-      <c r="I15" s="6">
-        <f t="shared" si="3"/>
-        <v>1594336.2220000003</v>
-      </c>
-      <c r="J15" s="2">
-        <f t="shared" si="3"/>
-        <v>2367259</v>
+        <v>2288203</v>
       </c>
       <c r="K15" s="7">
         <f>I15/I$15</f>
@@ -1266,37 +2482,62 @@
       </c>
       <c r="P15" s="6">
         <f>SUM(P2:P14)</f>
-        <v>966853.09000000008</v>
+        <v>936021.25</v>
       </c>
       <c r="Q15" s="6">
         <f>SUM(Q2:Q14)</f>
-        <v>740973.3899999999</v>
+        <v>721999.95</v>
       </c>
       <c r="R15" s="6">
         <f>J15-P15-Q15</f>
-        <v>659432.52</v>
+        <v>630181.80000000005</v>
+      </c>
+      <c r="U15" s="6">
+        <f>SUM(U2:U14)</f>
+        <v>885842.94</v>
+      </c>
+      <c r="V15" s="6">
+        <f>SUM(V2:V14)</f>
+        <v>818360.04</v>
+      </c>
+      <c r="W15" s="5">
+        <f>SUM(W2:W14)</f>
+        <v>584000.02</v>
       </c>
     </row>
-    <row r="16" spans="1:18">
+    <row r="16" spans="1:23">
       <c r="J16" s="4">
         <f>I15/J15</f>
-        <v>0.67349462902031432</v>
+        <v>0.68017974891213762</v>
       </c>
       <c r="P16" s="3">
         <f>P15/J15</f>
-        <v>0.40842725278476083</v>
+        <v>0.40906390298413209</v>
       </c>
       <c r="Q16" s="3">
         <f>Q15/J15</f>
-        <v>0.31300900746390653</v>
+        <v>0.31553142356687758</v>
       </c>
       <c r="R16" s="3">
         <f>R15/J15</f>
-        <v>0.27856373975133264</v>
+        <v>0.27540467344899033</v>
+      </c>
+      <c r="U16" s="4">
+        <f>U15/$J15</f>
+        <v>0.38713476907424732</v>
+      </c>
+      <c r="V16" s="4">
+        <f t="shared" ref="V16:W16" si="10">V15/$J15</f>
+        <v>0.35764311120997572</v>
+      </c>
+      <c r="W16" s="4">
+        <f t="shared" si="10"/>
+        <v>0.25522211971577696</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/2018/ks.xlsx
+++ b/2018/ks.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ESB13240/Dropbox/Social/VoteSimulator/2018/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5924FEA8-B449-A34E-A93A-ED6BAB6D89C4}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C1D8677-5243-C04B-89F0-1989E6F564E9}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -18,8 +18,6 @@
   <definedNames>
     <definedName name="_xlchart.v1.0" hidden="1">Sheet1!$U$15:$W$15</definedName>
     <definedName name="_xlchart.v1.1" hidden="1">Sheet1!$U$1:$W$1</definedName>
-    <definedName name="_xlchart.v1.2" hidden="1">Sheet1!$U$15:$W$15</definedName>
-    <definedName name="_xlchart.v1.3" hidden="1">Sheet1!$U$1:$W$1</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
 </workbook>
@@ -494,7 +492,343 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="zh-TW"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:pieChart>
+        <c:varyColors val="1"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:dPt>
+            <c:idx val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3">
+                  <a:lumMod val="40000"/>
+                  <a:lumOff val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000001-432D-2D4B-83DB-53015C50D0A4}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="1"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="tx2">
+                  <a:lumMod val="40000"/>
+                  <a:lumOff val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000003-432D-2D4B-83DB-53015C50D0A4}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="2"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="bg1">
+                  <a:lumMod val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000005-432D-2D4B-83DB-53015C50D0A4}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dLbls>
+            <c:dLbl>
+              <c:idx val="0"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="1"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="1"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000001-432D-2D4B-83DB-53015C50D0A4}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="1"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="1"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="1"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000003-432D-2D4B-83DB-53015C50D0A4}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="2"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="1"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="1"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000005-432D-2D4B-83DB-53015C50D0A4}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="zh-TW"/>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="1"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="1"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="1"/>
+            <c:leaderLines>
+              <c:spPr>
+                <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="35000"/>
+                      <a:lumOff val="65000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:round/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+            </c:leaderLines>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$U$1:$W$1</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>陳其邁
+9/11</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>韓國瑜
+9/11</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>其他</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$U$15:$W$15</c:f>
+              <c:numCache>
+                <c:formatCode>0</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>885842.94</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>818360.04</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>584000.02</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000006-432D-2D4B-83DB-53015C50D0A4}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="1"/>
+          <c:showBubbleSize val="0"/>
+          <c:showLeaderLines val="1"/>
+        </c:dLbls>
+        <c:firstSliceAng val="0"/>
+      </c:pieChart>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="zh-TW"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -1053,20 +1387,539 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="251">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050">
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="25400">
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>723900</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>482600</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>21</xdr:col>
-      <xdr:colOff>152400</xdr:colOff>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>508000</xdr:colOff>
       <xdr:row>42</xdr:row>
-      <xdr:rowOff>25400</xdr:rowOff>
+      <xdr:rowOff>101600</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -1086,6 +1939,44 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>406400</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>50800</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>317500</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>139700</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="圖表 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{57ACC1E8-3CD5-BC4A-A90A-5E20528C80A1}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -1382,7 +2273,7 @@
   <dimension ref="A1:W16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="W38" sqref="W38"/>
+      <selection activeCell="V32" sqref="V32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.19921875" defaultRowHeight="14"/>
@@ -1599,7 +2490,7 @@
         <v>72438.600000000006</v>
       </c>
       <c r="W3" s="5">
-        <f t="shared" ref="W3:W16" si="8">$J3-U3-V3</f>
+        <f t="shared" ref="W3:W14" si="8">$J3-U3-V3</f>
         <v>40862.799999999988</v>
       </c>
     </row>
